--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="6465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16005" windowHeight="1440"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="payment" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A5:J23"/>
+  <oleSize ref="A1:M19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>firstname</t>
   </si>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -721,7 +721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -738,7 +738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -755,6 +755,25 @@
         <v>66</v>
       </c>
     </row>
+    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -764,6 +783,7 @@
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -774,7 +794,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -848,10 +868,10 @@
     </row>
     <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -862,7 +882,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
@@ -872,8 +899,9 @@
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId8"/>
     <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -963,7 +991,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16005" windowHeight="1440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
-    <sheet name="signin" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="payment" sheetId="3" r:id="rId4"/>
+    <sheet name="URL" sheetId="5" r:id="rId2"/>
+    <sheet name="signin" sheetId="2" r:id="rId3"/>
+    <sheet name="contact" sheetId="4" r:id="rId4"/>
+    <sheet name="payment" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M19"/>
+  <oleSize ref="A1:L19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>firstname</t>
   </si>
@@ -227,6 +228,15 @@
   </si>
   <si>
     <t>sinha</t>
+  </si>
+  <si>
+    <t>baseUrl</t>
+  </si>
+  <si>
+    <t>https://test-dynamic-usgbc.pantheonsite.io</t>
+  </si>
+  <si>
+    <t>https://dev-dynamic-usgbc.pantheonsite.io</t>
   </si>
 </sst>
 </file>
@@ -591,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -791,6 +801,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -907,12 +954,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +1033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="3465" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="payment" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L19"/>
+  <oleSize ref="A1:G9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1037,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="3465" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="5865" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="payment" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G9"/>
+  <oleSize ref="A1:K17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -840,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1037,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="5865" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="5865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="payment" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
+  <oleSize ref="A1:N17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -841,7 +841,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="5865" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13575" windowHeight="5865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>firstname</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>https://dev-dynamic-usgbc.pantheonsite.io</t>
+  </si>
+  <si>
+    <t>user doesnot exist</t>
+  </si>
+  <si>
+    <t>user which can do the payment for store with other user I get user not found</t>
   </si>
 </sst>
 </file>
@@ -841,12 +847,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,6 +919,9 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -920,6 +930,9 @@
       <c r="B9" t="s">
         <v>66</v>
       </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -927,6 +940,9 @@
       </c>
       <c r="B10" t="s">
         <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13575" windowHeight="5865" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="5865" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
     <sheet name="URL" sheetId="5" r:id="rId2"/>
     <sheet name="signin" sheetId="2" r:id="rId3"/>
-    <sheet name="contact" sheetId="4" r:id="rId4"/>
-    <sheet name="payment" sheetId="3" r:id="rId5"/>
+    <sheet name="DonationByMail" sheetId="6" r:id="rId4"/>
+    <sheet name="DonationByOnline" sheetId="7" r:id="rId5"/>
+    <sheet name="contact" sheetId="4" r:id="rId6"/>
+    <sheet name="payment" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N17"/>
+  <oleSize ref="A1:P17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
   <si>
     <t>firstname</t>
   </si>
@@ -243,6 +245,105 @@
   </si>
   <si>
     <t>user which can do the payment for store with other user I get user not found</t>
+  </si>
+  <si>
+    <t>Donation amount</t>
+  </si>
+  <si>
+    <t>Donor Name</t>
+  </si>
+  <si>
+    <t>Dedicated to</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Street address line1</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip code</t>
+  </si>
+  <si>
+    <t>john Simpson</t>
+  </si>
+  <si>
+    <t>manushi chillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States </t>
+  </si>
+  <si>
+    <t>9947 harwin Drive, Suite L</t>
+  </si>
+  <si>
+    <t>Unite 531</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>john@test.com</t>
+  </si>
+  <si>
+    <t>manushi@test.com</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Flat No. 403</t>
+  </si>
+  <si>
+    <t>Bhagwati Enclave</t>
+  </si>
+  <si>
+    <t>Pritam Pura</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Street address line2</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Your contribution</t>
+  </si>
+  <si>
+    <t>Donor name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Ekta</t>
+  </si>
+  <si>
+    <t>Suruchi</t>
+  </si>
+  <si>
+    <t>Gagan</t>
+  </si>
+  <si>
+    <t>ekta@test.com</t>
+  </si>
+  <si>
+    <t>suruchi@test.com</t>
+  </si>
+  <si>
+    <t>gagan@gmail.com</t>
+  </si>
+  <si>
+    <t>Donation</t>
   </si>
 </sst>
 </file>
@@ -846,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -972,6 +1073,227 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2">
+        <v>77036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3">
+        <v>110034</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1049,7 +1371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="5865" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5865" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5865" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="5865" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="payment" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P17"/>
+  <oleSize ref="A1:L17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="109">
   <si>
     <t>firstname</t>
   </si>
@@ -344,6 +344,15 @@
   </si>
   <si>
     <t>Donation</t>
+  </si>
+  <si>
+    <t>$25</t>
+  </si>
+  <si>
+    <t>$50</t>
+  </si>
+  <si>
+    <t>$100</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1202,7 +1211,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,8 +1241,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>25</v>
+      <c r="A2" t="s">
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -1249,8 +1258,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
+      <c r="A3" t="s">
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>100</v>
@@ -1266,8 +1275,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>150</v>
+      <c r="A4" t="s">
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
